--- a/com.crm.demo/src/test/resources/TestData/Module.xlsx
+++ b/com.crm.demo/src/test/resources/TestData/Module.xlsx
@@ -21,7 +21,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">Turtle</t>
+  </si>
   <si>
     <t xml:space="preserve">Dog</t>
   </si>
@@ -32,16 +35,16 @@
     <t xml:space="preserve">cow</t>
   </si>
   <si>
-    <t xml:space="preserve">hello</t>
+    <t xml:space="preserve">Lion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat</t>
   </si>
   <si>
     <t xml:space="preserve">goat</t>
   </si>
   <si>
     <t xml:space="preserve">horse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat</t>
   </si>
   <si>
     <t xml:space="preserve">meow</t>
@@ -60,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -89,6 +92,18 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,12 +148,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,7 +185,7 @@
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -170,33 +193,48 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -218,7 +256,7 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C5 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -228,15 +266,15 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/com.crm.demo/src/test/resources/TestData/Module.xlsx
+++ b/com.crm.demo/src/test/resources/TestData/Module.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t xml:space="preserve">Turtle</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t xml:space="preserve">hiss</t>
+  </si>
+  <si>
+    <t>Blue Whale</t>
+  </si>
+  <si>
+    <t>Penguin</t>
   </si>
 </sst>
 </file>
@@ -182,7 +188,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C5"/>
@@ -190,7 +196,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.63"/>
+    <col min="1" max="1025" customWidth="true" hidden="false" style="0" width="12.63" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -235,6 +241,11 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -261,7 +272,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.63"/>
+    <col min="1" max="1025" customWidth="true" hidden="false" style="0" width="12.63" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/com.crm.demo/src/test/resources/TestData/Module.xlsx
+++ b/com.crm.demo/src/test/resources/TestData/Module.xlsx
@@ -47,6 +47,9 @@
     <t xml:space="preserve">horse</t>
   </si>
   <si>
+    <t xml:space="preserve">Blue Whale</t>
+  </si>
+  <si>
     <t xml:space="preserve">meow</t>
   </si>
   <si>
@@ -57,9 +60,6 @@
   </si>
   <si>
     <t>Blue Whale</t>
-  </si>
-  <si>
-    <t>Penguin</t>
   </si>
 </sst>
 </file>
@@ -69,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -98,12 +98,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -163,11 +157,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -191,7 +189,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -243,9 +241,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -267,7 +270,7 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C2:C5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -277,15 +280,15 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
